--- a/DOCUMENTOS/Notas.xlsx
+++ b/DOCUMENTOS/Notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\CursoHTML\DOCUMENTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1913C673-6309-44F8-B604-7CB13FC05156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42043C64-4E69-4C77-8939-DF9B6CA9CF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B5A71190-DD5F-4F72-81CA-D2CDA1BEEC63}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>UF1</t>
   </si>
@@ -48,9 +48,6 @@
     <t>UF3</t>
   </si>
   <si>
-    <t>UF4</t>
-  </si>
-  <si>
     <t>UF5</t>
   </si>
   <si>
@@ -64,13 +61,64 @@
   </si>
   <si>
     <t>Media Total:</t>
+  </si>
+  <si>
+    <t>Alumno</t>
+  </si>
+  <si>
+    <t>Berbel Morales, Cristina</t>
+  </si>
+  <si>
+    <t>Boga Zaragoza, Maria Angeles</t>
+  </si>
+  <si>
+    <t>Casadi martinez, Águeda</t>
+  </si>
+  <si>
+    <t>Elabdellaoui, Saida</t>
+  </si>
+  <si>
+    <t>MÓDULO 1</t>
+  </si>
+  <si>
+    <t>El Fallaki, María</t>
+  </si>
+  <si>
+    <t>Ferrer Lozano, Jose Francisco</t>
+  </si>
+  <si>
+    <t>García Ortega, Jesus</t>
+  </si>
+  <si>
+    <t>Gonzalez Gomez, Miguel Angel</t>
+  </si>
+  <si>
+    <t>Martinez Rueda, Alba</t>
+  </si>
+  <si>
+    <t>Muñoz Muñoz, Sergio</t>
+  </si>
+  <si>
+    <t>Perez Guirado, Cristina</t>
+  </si>
+  <si>
+    <t>Rodriguez Galindo, María Jesús</t>
+  </si>
+  <si>
+    <t>Ruiz Sedano, Francisco</t>
+  </si>
+  <si>
+    <t>Serrano Diaz, Luz</t>
+  </si>
+  <si>
+    <t>IFCD0110 - Diciembre 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,8 +139,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,6 +173,78 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -118,10 +261,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,125 +600,598 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4766EE60-6A90-445E-A732-3F299E5F976E}">
-  <dimension ref="D6:G27"/>
+  <dimension ref="A4:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="34.44140625" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
-        <v>0</v>
+    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="B4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7">
+        <f>(C7+D7)/2</f>
+        <v>9.75</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="8">
+        <f>(F7+G7)/2</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="9">
+        <f>(I7+J7)/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="7">
+        <f t="shared" ref="E8:E20" si="0">(C8+D8)/2</f>
+        <v>5</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="8">
+        <f t="shared" ref="H8:H20" si="1">(F8+G8)/2</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="9">
+        <f t="shared" ref="K8:K20" si="2">(I8+J8)/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D10" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="G7">
-        <f>(E7+F7)/2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>5</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>6</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="G11">
-        <f t="shared" ref="G11" si="0">(E11+F11)/2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4">
+        <v>8</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4">
+        <v>10</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="D16" s="4">
+        <v>8</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
+        <v>4.25</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="4">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="7">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="4">
+        <v>10</v>
+      </c>
+      <c r="D20" s="4">
+        <v>10</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="1" t="s">
+    </row>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <f>(F34+G34)/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="F38" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="G15">
-        <f t="shared" ref="G15" si="1">(E15+F15)/2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="G19">
-        <f t="shared" ref="G19" si="2">(E19+F19)/2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="G23">
-        <f>(E23+F23)/2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="4:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="E27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2">
-        <f>(G7+G11+G15+G19+G23)/5</f>
-        <v>0</v>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2">
+        <f>(E7+H22+H26+H30+H34)/5</f>
+        <v>1.95</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="C4:K4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DOCUMENTOS/Notas.xlsx
+++ b/DOCUMENTOS/Notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\CursoHTML\DOCUMENTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42043C64-4E69-4C77-8939-DF9B6CA9CF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05D4FF0-3289-4976-9FFF-BFF97291EF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B5A71190-DD5F-4F72-81CA-D2CDA1BEEC63}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>UF1</t>
   </si>
@@ -48,9 +48,6 @@
     <t>UF3</t>
   </si>
   <si>
-    <t>UF5</t>
-  </si>
-  <si>
     <t>Teoria</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>Media</t>
   </si>
   <si>
-    <t>Media Total:</t>
-  </si>
-  <si>
     <t>Alumno</t>
   </si>
   <si>
@@ -72,18 +66,9 @@
     <t>Boga Zaragoza, Maria Angeles</t>
   </si>
   <si>
-    <t>Casadi martinez, Águeda</t>
-  </si>
-  <si>
     <t>Elabdellaoui, Saida</t>
   </si>
   <si>
-    <t>MÓDULO 1</t>
-  </si>
-  <si>
-    <t>El Fallaki, María</t>
-  </si>
-  <si>
     <t>Ferrer Lozano, Jose Francisco</t>
   </si>
   <si>
@@ -108,17 +93,23 @@
     <t>Ruiz Sedano, Francisco</t>
   </si>
   <si>
-    <t>Serrano Diaz, Luz</t>
-  </si>
-  <si>
-    <t>IFCD0110 - Diciembre 2025</t>
+    <t>Serrano Diaz, Luz (baja por faltas)</t>
+  </si>
+  <si>
+    <t>IFCD0110 - CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</t>
+  </si>
+  <si>
+    <t>MF0950_2 - Construcción de páginas web</t>
+  </si>
+  <si>
+    <t>"Diciembre 2025"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +153,14 @@
       <name val="DejaVu Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -261,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -272,6 +271,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -284,8 +285,7 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4766EE60-6A90-445E-A732-3F299E5F976E}">
-  <dimension ref="A4:K38"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,69 +620,74 @@
     <col min="11" max="11" width="6.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="B1" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="B4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="B4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11" t="s">
+      <c r="C5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
-        <v>8</v>
+      <c r="B6" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -690,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4">
         <v>9.5</v>
@@ -702,11 +707,15 @@
         <f>(C7+D7)/2</f>
         <v>9.75</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="5">
+        <v>10</v>
+      </c>
+      <c r="G7" s="5">
+        <v>10</v>
+      </c>
       <c r="H7" s="8">
         <f>(F7+G7)/2</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -720,26 +729,32 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="4">
         <v>10</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4">
+        <v>8.5</v>
+      </c>
       <c r="E8" s="7">
-        <f t="shared" ref="E8:E20" si="0">(C8+D8)/2</f>
-        <v>5</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+        <f t="shared" ref="E8:E18" si="0">(C8+D8)/2</f>
+        <v>9.25</v>
+      </c>
+      <c r="F8" s="5">
+        <v>9.5</v>
+      </c>
+      <c r="G8" s="5">
+        <v>10</v>
+      </c>
       <c r="H8" s="8">
-        <f t="shared" ref="H8:H20" si="1">(F8+G8)/2</f>
-        <v>0</v>
+        <f t="shared" ref="H8:H18" si="1">(F8+G8)/2</f>
+        <v>9.75</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="9">
-        <f t="shared" ref="K8:K20" si="2">(I8+J8)/2</f>
+        <f t="shared" ref="K8:K18" si="2">(I8+J8)/2</f>
         <v>0</v>
       </c>
     </row>
@@ -748,19 +763,27 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>7</v>
+      </c>
       <c r="E9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+        <v>6.25</v>
+      </c>
+      <c r="F9" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="G9" s="5">
+        <v>9</v>
+      </c>
       <c r="H9" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -774,23 +797,27 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="D10" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="0"/>
-        <v>6.25</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="F10" s="5">
+        <v>9.5</v>
+      </c>
+      <c r="G10" s="5">
+        <v>8.5</v>
+      </c>
       <c r="H10" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -804,19 +831,27 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="C11" s="4">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4">
+        <v>9.5</v>
+      </c>
       <c r="E11" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+        <v>9.25</v>
+      </c>
+      <c r="F11" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="G11" s="5">
+        <v>9.5</v>
+      </c>
       <c r="H11" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -830,21 +865,27 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4">
         <v>10</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4">
+        <v>8</v>
+      </c>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="F12" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="G12" s="5">
+        <v>8</v>
+      </c>
       <c r="H12" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -858,21 +899,27 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D13" s="4">
+        <v>10</v>
+      </c>
       <c r="E13" s="7">
         <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="F13" s="5">
+        <v>9.5</v>
+      </c>
+      <c r="G13" s="5">
+        <v>9.5</v>
+      </c>
       <c r="H13" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -886,23 +933,27 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C14" s="4">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D14" s="4">
         <v>8</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+        <v>8.75</v>
+      </c>
+      <c r="F14" s="5">
+        <v>10</v>
+      </c>
+      <c r="G14" s="5">
+        <v>8</v>
+      </c>
       <c r="H14" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -916,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C15" s="4">
         <v>10</v>
@@ -928,11 +979,15 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="F15" s="5">
+        <v>9.5</v>
+      </c>
+      <c r="G15" s="5">
+        <v>9</v>
+      </c>
       <c r="H15" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.25</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -946,23 +1001,27 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C16" s="4">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="D16" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="F16" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="G16" s="5">
+        <v>8</v>
+      </c>
       <c r="H16" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -976,19 +1035,27 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="C17" s="4">
+        <v>10</v>
+      </c>
+      <c r="D17" s="4">
+        <v>9.5</v>
+      </c>
       <c r="E17" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+        <v>9.75</v>
+      </c>
+      <c r="F17" s="5">
+        <v>10</v>
+      </c>
+      <c r="G17" s="5">
+        <v>9.5</v>
+      </c>
       <c r="H17" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.75</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -1002,20 +1069,22 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C18" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="D18" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D18" s="4">
+        <v>10</v>
+      </c>
       <c r="E18" s="7">
         <f t="shared" si="0"/>
-        <v>4.25</v>
+        <v>10</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="8">
-        <f t="shared" si="1"/>
+        <f>(F18+G18)/2</f>
         <v>0</v>
       </c>
       <c r="I18" s="6"/>
@@ -1026,62 +1095,20 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="4">
-        <v>10</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="4">
-        <v>10</v>
-      </c>
-      <c r="D20" s="4">
-        <v>10</v>
-      </c>
-      <c r="E20" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C21" s="3"/>
@@ -1139,51 +1166,15 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="H34">
-        <f>(F34+G34)/2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="5:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="F38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2">
-        <f>(E7+H22+H26+H30+H34)/5</f>
-        <v>1.95</v>
-      </c>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="36" spans="6:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
